--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H2">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.9392746769343</v>
+        <v>2.856403666666667</v>
       </c>
       <c r="N2">
-        <v>6.9392746769343</v>
+        <v>8.569210999999999</v>
       </c>
       <c r="O2">
-        <v>0.7609649880392343</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="P2">
-        <v>0.7609649880392343</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="Q2">
-        <v>8.222215896406645</v>
+        <v>4.021903006911222</v>
       </c>
       <c r="R2">
-        <v>8.222215896406645</v>
+        <v>36.19712706220099</v>
       </c>
       <c r="S2">
-        <v>0.2348701199123149</v>
+        <v>0.08147395118029804</v>
       </c>
       <c r="T2">
-        <v>0.2348701199123149</v>
+        <v>0.08147395118029804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H3">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.17977125291145</v>
+        <v>7.000300666666668</v>
       </c>
       <c r="N3">
-        <v>2.17977125291145</v>
+        <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.2390350119607656</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="P3">
-        <v>0.2390350119607656</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="Q3">
-        <v>2.582769911932172</v>
+        <v>9.856635681120224</v>
       </c>
       <c r="R3">
-        <v>2.582769911932172</v>
+        <v>88.709721130082</v>
       </c>
       <c r="S3">
-        <v>0.07377761500844772</v>
+        <v>0.1996714124894607</v>
       </c>
       <c r="T3">
-        <v>0.07377761500844772</v>
+        <v>0.1996714124894607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.00404790960648</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H4">
-        <v>2.00404790960648</v>
+        <v>4.224091</v>
       </c>
       <c r="I4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9392746769343</v>
+        <v>2.255294666666666</v>
       </c>
       <c r="N4">
-        <v>6.9392746769343</v>
+        <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.7609649880392343</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="P4">
-        <v>0.7609649880392343</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="Q4">
-        <v>13.90663891049536</v>
+        <v>3.175523301271555</v>
       </c>
       <c r="R4">
-        <v>13.90663891049536</v>
+        <v>28.579709711444</v>
       </c>
       <c r="S4">
-        <v>0.397247407467464</v>
+        <v>0.06432836146846653</v>
       </c>
       <c r="T4">
-        <v>0.397247407467464</v>
+        <v>0.06432836146846654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H5">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I5">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J5">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.17977125291145</v>
+        <v>2.856403666666667</v>
       </c>
       <c r="N5">
-        <v>2.17977125291145</v>
+        <v>8.569210999999999</v>
       </c>
       <c r="O5">
-        <v>0.2390350119607656</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="P5">
-        <v>0.2390350119607656</v>
+        <v>0.235832554697756</v>
       </c>
       <c r="Q5">
-        <v>4.368366022817489</v>
+        <v>5.756730252515666</v>
       </c>
       <c r="R5">
-        <v>4.368366022817489</v>
+        <v>51.810572272641</v>
       </c>
       <c r="S5">
-        <v>0.1247837157922864</v>
+        <v>0.1166173223833688</v>
       </c>
       <c r="T5">
-        <v>0.1247837157922864</v>
+        <v>0.1166173223833688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H6">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I6">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J6">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.9392746769343</v>
+        <v>7.000300666666668</v>
       </c>
       <c r="N6">
-        <v>6.9392746769343</v>
+        <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.7609649880392343</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="P6">
-        <v>0.7609649880392343</v>
+        <v>0.5779641054021444</v>
       </c>
       <c r="Q6">
-        <v>4.510627574258145</v>
+        <v>14.10824495668467</v>
       </c>
       <c r="R6">
-        <v>4.510627574258145</v>
+        <v>126.974204610162</v>
       </c>
       <c r="S6">
-        <v>0.1288474606594555</v>
+        <v>0.2857986527435881</v>
       </c>
       <c r="T6">
-        <v>0.1288474606594555</v>
+        <v>0.2857986527435881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H7">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I7">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J7">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.17977125291145</v>
+        <v>2.255294666666666</v>
       </c>
       <c r="N7">
-        <v>2.17977125291145</v>
+        <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.2390350119607656</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="P7">
-        <v>0.2390350119607656</v>
+        <v>0.1862033399000996</v>
       </c>
       <c r="Q7">
-        <v>1.416882423121107</v>
+        <v>4.545268999422666</v>
       </c>
       <c r="R7">
-        <v>1.416882423121107</v>
+        <v>40.907420994804</v>
       </c>
       <c r="S7">
-        <v>0.04047368116003158</v>
+        <v>0.09207607043827917</v>
       </c>
       <c r="T7">
-        <v>0.04047368116003158</v>
+        <v>0.09207607043827917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.956731</v>
+      </c>
+      <c r="I8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.856403666666667</v>
+      </c>
+      <c r="N8">
+        <v>8.569210999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.235832554697756</v>
+      </c>
+      <c r="P8">
+        <v>0.235832554697756</v>
+      </c>
+      <c r="Q8">
+        <v>1.863071201026778</v>
+      </c>
+      <c r="R8">
+        <v>16.767640809241</v>
+      </c>
+      <c r="S8">
+        <v>0.03774128113408916</v>
+      </c>
+      <c r="T8">
+        <v>0.03774128113408915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.956731</v>
+      </c>
+      <c r="I9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.000300666666668</v>
+      </c>
+      <c r="N9">
+        <v>21.000902</v>
+      </c>
+      <c r="O9">
+        <v>0.5779641054021444</v>
+      </c>
+      <c r="P9">
+        <v>0.5779641054021444</v>
+      </c>
+      <c r="Q9">
+        <v>4.565901774595779</v>
+      </c>
+      <c r="R9">
+        <v>41.093115971362</v>
+      </c>
+      <c r="S9">
+        <v>0.09249404016909554</v>
+      </c>
+      <c r="T9">
+        <v>0.09249404016909554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.956731</v>
+      </c>
+      <c r="I10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.255294666666666</v>
+      </c>
+      <c r="N10">
+        <v>6.765884</v>
+      </c>
+      <c r="O10">
+        <v>0.1862033399000996</v>
+      </c>
+      <c r="P10">
+        <v>0.1862033399000996</v>
+      </c>
+      <c r="Q10">
+        <v>1.471001662800444</v>
+      </c>
+      <c r="R10">
+        <v>13.239014965204</v>
+      </c>
+      <c r="S10">
+        <v>0.02979890799335384</v>
+      </c>
+      <c r="T10">
+        <v>0.02979890799335384</v>
       </c>
     </row>
   </sheetData>
